--- a/Skills_Обр.xlsx
+++ b/Skills_Обр.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Обработанное" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="524">
   <si>
     <t>Навык ENG</t>
   </si>
@@ -34,127 +34,154 @@
     <t>sql</t>
   </si>
   <si>
+    <t>java</t>
+  </si>
+  <si>
     <t>php</t>
   </si>
   <si>
-    <t>java</t>
-  </si>
-  <si>
     <t>css</t>
   </si>
   <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
     <t>linux</t>
   </si>
   <si>
-    <t>postgresql</t>
-  </si>
-  <si>
     <t>html</t>
   </si>
   <si>
+    <t>c#</t>
+  </si>
+  <si>
     <t>ms sql</t>
   </si>
   <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>c#</t>
+    <t>c++</t>
   </si>
   <si>
     <t>python</t>
   </si>
   <si>
-    <t>c++</t>
-  </si>
-  <si>
     <t>jquery</t>
   </si>
   <si>
     <t>react</t>
   </si>
   <si>
+    <t>android</t>
+  </si>
+  <si>
     <t>html5</t>
   </si>
   <si>
+    <t>angularjs</t>
+  </si>
+  <si>
+    <t>android sdk</t>
+  </si>
+  <si>
+    <t>ios</t>
+  </si>
+  <si>
+    <t>node.js</t>
+  </si>
+  <si>
+    <t>typescript</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>css3</t>
+  </si>
+  <si>
+    <t>oracle pl/sql</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>asp.net</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>qt</t>
+  </si>
+  <si>
+    <t>laravel</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>ms sql server</t>
+  </si>
+  <si>
+    <t>mongodb</t>
+  </si>
+  <si>
+    <t>scala</t>
+  </si>
+  <si>
     <t>atlassian jira</t>
   </si>
   <si>
-    <t>qt</t>
-  </si>
-  <si>
-    <t>angularjs</t>
-  </si>
-  <si>
-    <t>spring framework</t>
-  </si>
-  <si>
-    <t>css3</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>android sdk</t>
+    <t>kotlin</t>
   </si>
   <si>
     <t>django framework</t>
   </si>
   <si>
-    <t>bootstrap</t>
-  </si>
-  <si>
-    <t>asp.net</t>
-  </si>
-  <si>
-    <t>ios</t>
-  </si>
-  <si>
-    <t>typescript</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>laravel</t>
-  </si>
-  <si>
     <t>php5</t>
   </si>
   <si>
-    <t>node.js</t>
+    <t>redis</t>
   </si>
   <si>
     <t>redux</t>
   </si>
   <si>
-    <t>oracle pl/sql</t>
+    <t>symfony</t>
+  </si>
+  <si>
+    <t>hibernate orm</t>
   </si>
   <si>
     <t>scrum</t>
   </si>
   <si>
-    <t>rest</t>
-  </si>
-  <si>
     <t>java se</t>
   </si>
   <si>
-    <t>ms sql server</t>
+    <t>c/c++</t>
   </si>
   <si>
     <t>entity framework</t>
   </si>
   <si>
-    <t>redis</t>
+    <t>ajax</t>
+  </si>
+  <si>
+    <t>docker</t>
   </si>
   <si>
     <t>vue.js</t>
   </si>
   <si>
-    <t>kotlin</t>
-  </si>
-  <si>
-    <t>c/c++</t>
+    <t>golang</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>unity</t>
   </si>
   <si>
     <t>json api</t>
@@ -163,34 +190,91 @@
     <t>.net core</t>
   </si>
   <si>
-    <t>ajax</t>
-  </si>
-  <si>
     <t>angular</t>
   </si>
   <si>
-    <t>oracle</t>
-  </si>
-  <si>
-    <t>symfony</t>
-  </si>
-  <si>
-    <t>scala</t>
-  </si>
-  <si>
-    <t>golang</t>
+    <t>ms visual studio</t>
+  </si>
+  <si>
+    <t>yii</t>
+  </si>
+  <si>
+    <t>visual studio c#</t>
+  </si>
+  <si>
+    <t>php7</t>
+  </si>
+  <si>
+    <t>svn</t>
   </si>
   <si>
     <t>api</t>
   </si>
   <si>
+    <t>java ee</t>
+  </si>
+  <si>
+    <t>objective-c</t>
+  </si>
+  <si>
+    <t>apache maven</t>
+  </si>
+  <si>
+    <t>wpf</t>
+  </si>
+  <si>
+    <t>transact-sql</t>
+  </si>
+  <si>
+    <t>vue</t>
+  </si>
+  <si>
+    <t>ci/cd</t>
+  </si>
+  <si>
+    <t>stl</t>
+  </si>
+  <si>
+    <t>swift</t>
+  </si>
+  <si>
+    <t>react.js</t>
+  </si>
+  <si>
+    <t>erp</t>
+  </si>
+  <si>
+    <t>crm</t>
+  </si>
+  <si>
+    <t>delphi</t>
+  </si>
+  <si>
+    <t>teamleading</t>
+  </si>
+  <si>
+    <t>tdd</t>
+  </si>
+  <si>
+    <t>mvc</t>
+  </si>
+  <si>
+    <t>cms wordpress</t>
+  </si>
+  <si>
+    <t>react native</t>
+  </si>
+  <si>
+    <t>olap (online analytical processing)</t>
+  </si>
+  <si>
     <t>qnx</t>
   </si>
   <si>
-    <t>unity</t>
-  </si>
-  <si>
-    <t>php7</t>
+    <t>pascal</t>
+  </si>
+  <si>
+    <t>sass</t>
   </si>
   <si>
     <t>flask</t>
@@ -199,16 +283,28 @@
     <t>soap</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>mac os</t>
   </si>
   <si>
-    <t>hibernate orm</t>
-  </si>
-  <si>
-    <t>mongodb</t>
+    <t>vba</t>
+  </si>
+  <si>
+    <t>linq</t>
+  </si>
+  <si>
+    <t>asp.net mvc</t>
+  </si>
+  <si>
+    <t>rxjs</t>
+  </si>
+  <si>
+    <t>ruby on rails</t>
+  </si>
+  <si>
+    <t>agile project management</t>
+  </si>
+  <si>
+    <t>agile</t>
   </si>
   <si>
     <t>ibso</t>
@@ -217,25 +313,52 @@
     <t>design patterns</t>
   </si>
   <si>
-    <t>stl</t>
-  </si>
-  <si>
-    <t>erp</t>
-  </si>
-  <si>
-    <t>java ee</t>
+    <t>yii2</t>
+  </si>
+  <si>
+    <t>eclipse</t>
   </si>
   <si>
     <t>blockchain</t>
   </si>
   <si>
-    <t>yii</t>
-  </si>
-  <si>
-    <t>olap (online analytical processing)</t>
-  </si>
-  <si>
-    <t>visual studio c#</t>
+    <t>solidworks</t>
+  </si>
+  <si>
+    <t>nginx</t>
+  </si>
+  <si>
+    <t>nosql</t>
+  </si>
+  <si>
+    <t>sap</t>
+  </si>
+  <si>
+    <t>adobe photoshop</t>
+  </si>
+  <si>
+    <t>etl</t>
+  </si>
+  <si>
+    <t>ms sharepoint</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>rest api</t>
+  </si>
+  <si>
+    <t>ms visual basic</t>
+  </si>
+  <si>
+    <t>sqlite</t>
+  </si>
+  <si>
+    <t>matlab</t>
+  </si>
+  <si>
+    <t>windows forms</t>
   </si>
   <si>
     <t>erlang</t>
@@ -244,34 +367,13 @@
     <t>elixir</t>
   </si>
   <si>
-    <t>wpf</t>
-  </si>
-  <si>
-    <t>transact-sql</t>
-  </si>
-  <si>
-    <t>svn</t>
-  </si>
-  <si>
-    <t>rxjs</t>
-  </si>
-  <si>
-    <t>docker</t>
-  </si>
-  <si>
     <t>jira</t>
   </si>
   <si>
-    <t>ruby on rails</t>
-  </si>
-  <si>
     <t>rabbitmq</t>
   </si>
   <si>
-    <t>agile project management</t>
-  </si>
-  <si>
-    <t>ci/cd</t>
+    <t>go</t>
   </si>
   <si>
     <t>akka http</t>
@@ -283,12 +385,6 @@
     <t>slick</t>
   </si>
   <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>ms visual studio</t>
-  </si>
-  <si>
     <t>cmake</t>
   </si>
   <si>
@@ -298,16 +394,25 @@
     <t>http</t>
   </si>
   <si>
-    <t>yii2</t>
+    <t>ruby</t>
   </si>
   <si>
     <t>tcp/ip</t>
   </si>
   <si>
-    <t>crm</t>
-  </si>
-  <si>
-    <t>delphi</t>
+    <t>groovy</t>
+  </si>
+  <si>
+    <t>webpack</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>websockets</t>
   </si>
   <si>
     <t>databases</t>
@@ -319,13 +424,43 @@
     <t>microservices</t>
   </si>
   <si>
-    <t>teamleading</t>
-  </si>
-  <si>
-    <t>tdd</t>
-  </si>
-  <si>
-    <t>sap</t>
+    <t>erp systems</t>
+  </si>
+  <si>
+    <t>seo</t>
+  </si>
+  <si>
+    <t>bitrix24</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>cassandra</t>
+  </si>
+  <si>
+    <t>wcf</t>
+  </si>
+  <si>
+    <t>windows 7</t>
+  </si>
+  <si>
+    <t>cordova</t>
+  </si>
+  <si>
+    <t>abap</t>
+  </si>
+  <si>
+    <t>angular 7+</t>
+  </si>
+  <si>
+    <t>ngrx</t>
+  </si>
+  <si>
+    <t>mobx</t>
+  </si>
+  <si>
+    <t>bash</t>
   </si>
   <si>
     <t>freertos</t>
@@ -334,13 +469,52 @@
     <t>embedded</t>
   </si>
   <si>
-    <t>etl</t>
+    <t>zend framework</t>
   </si>
   <si>
     <t>ssas</t>
   </si>
   <si>
-    <t>windows forms</t>
+    <t>sql server</t>
+  </si>
+  <si>
+    <t>jest</t>
+  </si>
+  <si>
+    <t>p-cad</t>
+  </si>
+  <si>
+    <t>altium designer</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>vuejs (2/3)</t>
+  </si>
+  <si>
+    <t>kiss, dry</t>
+  </si>
+  <si>
+    <t>js ecmascript 2018</t>
+  </si>
+  <si>
+    <t>nuxtjs</t>
+  </si>
+  <si>
+    <t>solid, dry, kiss</t>
+  </si>
+  <si>
+    <t>autocad</t>
+  </si>
+  <si>
+    <t>gradle</t>
+  </si>
+  <si>
+    <t>wms</t>
+  </si>
+  <si>
+    <t>tms systems</t>
   </si>
   <si>
     <t>developer express</t>
@@ -373,15 +547,9 @@
     <t>bpmn</t>
   </si>
   <si>
-    <t>vba</t>
-  </si>
-  <si>
     <t>helpdesk</t>
   </si>
   <si>
-    <t>linq</t>
-  </si>
-  <si>
     <t>j2ee</t>
   </si>
   <si>
@@ -409,12 +577,6 @@
     <t>scss</t>
   </si>
   <si>
-    <t>asp.net mvc</t>
-  </si>
-  <si>
-    <t>vue</t>
-  </si>
-  <si>
     <t>graphql</t>
   </si>
   <si>
@@ -427,6 +589,9 @@
     <t>ext js</t>
   </si>
   <si>
+    <t>erlang-otp</t>
+  </si>
+  <si>
     <t>atlassian confluence</t>
   </si>
   <si>
@@ -442,18 +607,12 @@
     <t>confluence</t>
   </si>
   <si>
-    <t>erlang-otp</t>
-  </si>
-  <si>
     <t>entity framework 6+</t>
   </si>
   <si>
     <t>t-sql</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>nuxt.js</t>
   </si>
   <si>
@@ -487,27 +646,9 @@
     <t>opengl</t>
   </si>
   <si>
-    <t>ruby</t>
-  </si>
-  <si>
-    <t>groovy</t>
-  </si>
-  <si>
     <t>java11</t>
   </si>
   <si>
-    <t>swift</t>
-  </si>
-  <si>
-    <t>eclipse</t>
-  </si>
-  <si>
-    <t>react.js</t>
-  </si>
-  <si>
-    <t>webpack</t>
-  </si>
-  <si>
     <t>sping framework</t>
   </si>
   <si>
@@ -517,9 +658,6 @@
     <t>webgl</t>
   </si>
   <si>
-    <t>frontend</t>
-  </si>
-  <si>
     <t>jsp</t>
   </si>
   <si>
@@ -553,30 +691,18 @@
     <t>nats</t>
   </si>
   <si>
-    <t>backend</t>
-  </si>
-  <si>
-    <t>websockets</t>
-  </si>
-  <si>
     <t>code review</t>
   </si>
   <si>
     <t>react-native</t>
   </si>
   <si>
-    <t>solidworks</t>
-  </si>
-  <si>
     <t>featurecam</t>
   </si>
   <si>
     <t>sprutcam</t>
   </si>
   <si>
-    <t>erp systems</t>
-  </si>
-  <si>
     <t>ms project</t>
   </si>
   <si>
@@ -589,66 +715,33 @@
     <t>qt widgets</t>
   </si>
   <si>
-    <t>seo</t>
-  </si>
-  <si>
-    <t>mvc</t>
-  </si>
-  <si>
     <t>bitrix 24</t>
   </si>
   <si>
-    <t>nginx</t>
-  </si>
-  <si>
-    <t>bitrix24</t>
-  </si>
-  <si>
-    <t>jenkins</t>
+    <t>mathcad</t>
   </si>
   <si>
     <t>activemq</t>
   </si>
   <si>
-    <t>cassandra</t>
-  </si>
-  <si>
-    <t>mathcad</t>
-  </si>
-  <si>
     <t>aiohttp</t>
   </si>
   <si>
-    <t>wcf</t>
-  </si>
-  <si>
     <t>unit testing</t>
   </si>
   <si>
     <t>bitrix</t>
   </si>
   <si>
-    <t>windows 7</t>
-  </si>
-  <si>
     <t>celery</t>
   </si>
   <si>
-    <t>cordova</t>
-  </si>
-  <si>
-    <t>nosql</t>
-  </si>
-  <si>
     <t>saas</t>
   </si>
   <si>
     <t>kubernetes</t>
   </si>
   <si>
-    <t>cms wordpress</t>
-  </si>
-  <si>
     <t>iar</t>
   </si>
   <si>
@@ -664,18 +757,9 @@
     <t>sap erp</t>
   </si>
   <si>
-    <t>abap</t>
-  </si>
-  <si>
-    <t>objective-c</t>
-  </si>
-  <si>
     <t>web design</t>
   </si>
   <si>
-    <t>adobe photoshop</t>
-  </si>
-  <si>
     <t>adobe illustrator</t>
   </si>
   <si>
@@ -685,27 +769,9 @@
     <t>pixi.js</t>
   </si>
   <si>
-    <t>angular 7+</t>
-  </si>
-  <si>
-    <t>ngrx</t>
-  </si>
-  <si>
-    <t>react native</t>
-  </si>
-  <si>
-    <t>mobx</t>
-  </si>
-  <si>
     <t>2d/3d</t>
   </si>
   <si>
-    <t>bash</t>
-  </si>
-  <si>
-    <t>zend framework</t>
-  </si>
-  <si>
     <t>fastreport</t>
   </si>
   <si>
@@ -721,9 +787,6 @@
     <t>web</t>
   </si>
   <si>
-    <t>pascal</t>
-  </si>
-  <si>
     <t>adobe acrobat</t>
   </si>
   <si>
@@ -745,52 +808,376 @@
     <t>ssis</t>
   </si>
   <si>
+    <t>magento</t>
+  </si>
+  <si>
+    <t>gitlab</t>
+  </si>
+  <si>
+    <t>apache</t>
+  </si>
+  <si>
+    <t>html5/scss/js</t>
+  </si>
+  <si>
+    <t>vue.js/nuxt.js</t>
+  </si>
+  <si>
+    <t>assembler</t>
+  </si>
+  <si>
+    <t>1c mes</t>
+  </si>
+  <si>
+    <t>angular 2+</t>
+  </si>
+  <si>
+    <t>sap bi</t>
+  </si>
+  <si>
+    <t>sap bw</t>
+  </si>
+  <si>
+    <t>bex</t>
+  </si>
+  <si>
+    <t>sap bo</t>
+  </si>
+  <si>
+    <t>sap bpc</t>
+  </si>
+  <si>
+    <t>sap bw on hana</t>
+  </si>
+  <si>
+    <t>stm32</t>
+  </si>
+  <si>
+    <t>keil</t>
+  </si>
+  <si>
+    <t>anaconda</t>
+  </si>
+  <si>
+    <t>numpy</t>
+  </si>
+  <si>
+    <t>opencv</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>scikit-learn</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>orm</t>
+  </si>
+  <si>
+    <t>.net core,javascript</t>
+  </si>
+  <si>
+    <t>socket.io</t>
+  </si>
+  <si>
+    <t>ms dynamics crm</t>
+  </si>
+  <si>
+    <t>webapi</t>
+  </si>
+  <si>
+    <t>asp.net core</t>
+  </si>
+  <si>
+    <t>pl/sql</t>
+  </si>
+  <si>
+    <t>uml</t>
+  </si>
+  <si>
+    <t>clickhouse</t>
+  </si>
+  <si>
+    <t>doker</t>
+  </si>
+  <si>
+    <t>redux/mobx</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>devtools</t>
+  </si>
+  <si>
+    <t>akka</t>
+  </si>
+  <si>
+    <t>nintex</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>java8</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>kiss</t>
+  </si>
+  <si>
+    <t>spring-boot</t>
+  </si>
+  <si>
+    <t>spring-data</t>
+  </si>
+  <si>
+    <t>camunda bpm</t>
+  </si>
+  <si>
+    <t>borland delphi</t>
+  </si>
+  <si>
+    <t>ansible</t>
+  </si>
+  <si>
+    <t>rhel</t>
+  </si>
+  <si>
+    <t>xamarin</t>
+  </si>
+  <si>
+    <t>java senior</t>
+  </si>
+  <si>
+    <t>system architect</t>
+  </si>
+  <si>
+    <t>java team lead</t>
+  </si>
+  <si>
+    <t>hadoop</t>
+  </si>
+  <si>
+    <t>hbase</t>
+  </si>
+  <si>
+    <t>coreldraw</t>
+  </si>
+  <si>
+    <t>apache tomcat</t>
+  </si>
+  <si>
+    <t>stm</t>
+  </si>
+  <si>
+    <t>nordic</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>sharepoint</t>
+  </si>
+  <si>
+    <t>gulp</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>wf4</t>
+  </si>
+  <si>
+    <t>ms excel</t>
+  </si>
+  <si>
+    <t>pl/pgsql</t>
+  </si>
+  <si>
+    <t>cognos bi</t>
+  </si>
+  <si>
+    <t>jasperreports</t>
+  </si>
+  <si>
+    <t>redmine</t>
+  </si>
+  <si>
+    <t>oracle 11g</t>
+  </si>
+  <si>
+    <t>dwh</t>
+  </si>
+  <si>
+    <t>pixijs</t>
+  </si>
+  <si>
+    <t>cocos2d</t>
+  </si>
+  <si>
+    <t>phaser</t>
+  </si>
+  <si>
+    <t>playable</t>
+  </si>
+  <si>
+    <t>playable-ads</t>
+  </si>
+  <si>
+    <t>git, svn, cvs,</t>
+  </si>
+  <si>
+    <t>http, snmp, nat</t>
+  </si>
+  <si>
+    <t>unix,linux, rtos ,rtems, vxworks</t>
+  </si>
+  <si>
+    <t>net/.net core</t>
+  </si>
+  <si>
+    <t>web api</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>borland c++</t>
+  </si>
+  <si>
+    <t>cvs, svn, git</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>vuejs</t>
+  </si>
+  <si>
+    <t>codeigniter</t>
+  </si>
+  <si>
+    <t>phpmyadmin</t>
+  </si>
+  <si>
+    <t>qlikview</t>
+  </si>
+  <si>
+    <t>qlik</t>
+  </si>
+  <si>
+    <t>qlik sense</t>
+  </si>
+  <si>
+    <t>business intelligence systems</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>jdbc</t>
+  </si>
+  <si>
+    <t>java core</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>windows xp</t>
+  </si>
+  <si>
     <t>1с</t>
   </si>
   <si>
     <t>ооп</t>
   </si>
   <si>
+    <t>разработка по</t>
+  </si>
+  <si>
+    <t>cистемы управления базами данных</t>
+  </si>
+  <si>
+    <t>английский язык</t>
+  </si>
+  <si>
     <t>работа в команде</t>
   </si>
   <si>
-    <t>разработка по</t>
-  </si>
-  <si>
-    <t>cистемы управления базами данных</t>
+    <t>веб-программирование</t>
+  </si>
+  <si>
+    <t>базы данных</t>
+  </si>
+  <si>
+    <t>работа с базами данных</t>
+  </si>
+  <si>
+    <t>субд</t>
+  </si>
+  <si>
+    <t>разработка технических заданий</t>
+  </si>
+  <si>
+    <t>управление проектами</t>
+  </si>
+  <si>
+    <t>информационные технологии</t>
   </si>
   <si>
     <t>расчет заработной платы</t>
   </si>
   <si>
-    <t>английский язык</t>
-  </si>
-  <si>
-    <t>субд</t>
-  </si>
-  <si>
-    <t>веб-программирование</t>
-  </si>
-  <si>
-    <t>управление проектами</t>
+    <t>администрирование сайтов</t>
+  </si>
+  <si>
+    <t>обучение и развитие</t>
+  </si>
+  <si>
+    <t>ответственность</t>
+  </si>
+  <si>
+    <t>компас-3d</t>
+  </si>
+  <si>
+    <t>бизнес-анализ</t>
   </si>
   <si>
     <t>аналитическое мышление</t>
   </si>
   <si>
+    <t>мобильность</t>
+  </si>
+  <si>
     <t>системное мышление</t>
   </si>
   <si>
-    <t>бизнес-анализ</t>
+    <t>пользователь пк</t>
+  </si>
+  <si>
+    <t>функциональное тестирование</t>
   </si>
   <si>
     <t>автоматизация технологических процессов</t>
   </si>
   <si>
-    <t>базы данных</t>
-  </si>
-  <si>
-    <t>мобильность</t>
+    <t>инженерные системы</t>
   </si>
   <si>
     <t>руководство командой разработчиков</t>
@@ -799,10 +1186,16 @@
     <t>постановка задач разработчикам</t>
   </si>
   <si>
-    <t>разработка технических заданий</t>
-  </si>
-  <si>
-    <t>обучение и развитие</t>
+    <t>организаторские навыки</t>
+  </si>
+  <si>
+    <t>деловая коммуникация</t>
+  </si>
+  <si>
+    <t>с#</t>
+  </si>
+  <si>
+    <t>кроссбраузерная верстка</t>
   </si>
   <si>
     <t>управление временем</t>
@@ -811,10 +1204,40 @@
     <t>управление командой</t>
   </si>
   <si>
-    <t>компас-3d</t>
-  </si>
-  <si>
-    <t>функциональное тестирование</t>
+    <t>развитие продаж</t>
+  </si>
+  <si>
+    <t>сопровождение клиентов</t>
+  </si>
+  <si>
+    <t>спортивные мероприятия</t>
+  </si>
+  <si>
+    <t>создание сайтов</t>
+  </si>
+  <si>
+    <t>грамотная речь</t>
+  </si>
+  <si>
+    <t>ориентация на результат</t>
+  </si>
+  <si>
+    <t>логика</t>
+  </si>
+  <si>
+    <t>обучаемость</t>
+  </si>
+  <si>
+    <t>база данных: oracle</t>
+  </si>
+  <si>
+    <t>креативность</t>
+  </si>
+  <si>
+    <t>унф</t>
+  </si>
+  <si>
+    <t>наполнение контентом</t>
   </si>
   <si>
     <t>оптимизация кода</t>
@@ -823,16 +1246,10 @@
     <t>асу тп</t>
   </si>
   <si>
-    <t>инженерные системы</t>
-  </si>
-  <si>
     <t>участие в группах распределенной разработки интернет-проектов</t>
   </si>
   <si>
-    <t>организаторские навыки</t>
-  </si>
-  <si>
-    <t>работа с базами данных</t>
+    <t>оптимизация бизнес-процессов</t>
   </si>
   <si>
     <t>техническая поддержка</t>
@@ -847,24 +1264,9 @@
     <t>администрирование</t>
   </si>
   <si>
-    <t>пользователь пк</t>
-  </si>
-  <si>
-    <t>деловая коммуникация</t>
-  </si>
-  <si>
     <t>бэкенд</t>
   </si>
   <si>
-    <t>администрирование сайтов</t>
-  </si>
-  <si>
-    <t>оптимизация бизнес-процессов</t>
-  </si>
-  <si>
-    <t>с#</t>
-  </si>
-  <si>
     <t>системная интеграция</t>
   </si>
   <si>
@@ -874,9 +1276,6 @@
     <t>знание битрикс24</t>
   </si>
   <si>
-    <t>информационные технологии</t>
-  </si>
-  <si>
     <t>внутренние коммуникации</t>
   </si>
   <si>
@@ -886,9 +1285,6 @@
     <t>управление разработкой</t>
   </si>
   <si>
-    <t>кроссбраузерная верстка</t>
-  </si>
-  <si>
     <t>алгоритмы и структуры данных</t>
   </si>
   <si>
@@ -934,9 +1330,6 @@
     <t>смарт-контракты</t>
   </si>
   <si>
-    <t>ответственность</t>
-  </si>
-  <si>
     <t>web-разработка</t>
   </si>
   <si>
@@ -991,24 +1384,15 @@
     <t>web-дизайн</t>
   </si>
   <si>
-    <t>развитие продаж</t>
-  </si>
-  <si>
     <t>web-приложения</t>
   </si>
   <si>
     <t>backend-сервис</t>
   </si>
   <si>
-    <t>сопровождение клиентов</t>
-  </si>
-  <si>
     <t>разработка нового продукта</t>
   </si>
   <si>
-    <t>спортивные мероприятия</t>
-  </si>
-  <si>
     <t>чтение чертежей</t>
   </si>
   <si>
@@ -1016,6 +1400,192 @@
   </si>
   <si>
     <t>системный анализ</t>
+  </si>
+  <si>
+    <t>консультирование</t>
+  </si>
+  <si>
+    <t>дискретное производство</t>
+  </si>
+  <si>
+    <t>эмоциональная устойчивость</t>
+  </si>
+  <si>
+    <t>инициативность</t>
+  </si>
+  <si>
+    <t>коммуникативные навыки</t>
+  </si>
+  <si>
+    <t>нацеленность на достижение результата</t>
+  </si>
+  <si>
+    <t>деловая переписка</t>
+  </si>
+  <si>
+    <t>ведение переговоров</t>
+  </si>
+  <si>
+    <t>ведение документации</t>
+  </si>
+  <si>
+    <t>проведение тестирований</t>
+  </si>
+  <si>
+    <t>проектно-конструкторская деятельность</t>
+  </si>
+  <si>
+    <t>управление производством</t>
+  </si>
+  <si>
+    <t>деловое общение</t>
+  </si>
+  <si>
+    <t>администрирование серверов</t>
+  </si>
+  <si>
+    <t>целеустремленность</t>
+  </si>
+  <si>
+    <t>коммуникабельность</t>
+  </si>
+  <si>
+    <t>верстка</t>
+  </si>
+  <si>
+    <t>схемотехника электронного оборудования</t>
+  </si>
+  <si>
+    <t>самостоятельная работа</t>
+  </si>
+  <si>
+    <t>техническая документация</t>
+  </si>
+  <si>
+    <t>аналоговая схемотехника</t>
+  </si>
+  <si>
+    <t>формирование управленческой отчетности</t>
+  </si>
+  <si>
+    <t>битрикс</t>
+  </si>
+  <si>
+    <t>машинное обучение</t>
+  </si>
+  <si>
+    <t>распознавание</t>
+  </si>
+  <si>
+    <t>моделирование</t>
+  </si>
+  <si>
+    <t>грамотность</t>
+  </si>
+  <si>
+    <t>обучение</t>
+  </si>
+  <si>
+    <t>преподаватель</t>
+  </si>
+  <si>
+    <t>мсфо</t>
+  </si>
+  <si>
+    <t>разработка хранилища</t>
+  </si>
+  <si>
+    <t>l2-коммутации, динамической маршрутизации, qos</t>
+  </si>
+  <si>
+    <t>по на c/c++</t>
+  </si>
+  <si>
+    <t>разработка по верхнего уровня для устройств беспроводного широкополосного доступа</t>
+  </si>
+  <si>
+    <t>проектирование архитектуры системы</t>
+  </si>
+  <si>
+    <t>модель osi, l2-коммутация, динамическая маршрутизация,</t>
+  </si>
+  <si>
+    <t>скриптовыми языками программирования (python, bash etc)</t>
+  </si>
+  <si>
+    <t>язык программирования java</t>
+  </si>
+  <si>
+    <t>eclipse ide, знание языка sql, субд</t>
+  </si>
+  <si>
+    <t>активные продажи</t>
+  </si>
+  <si>
+    <t>работа с людьми</t>
+  </si>
+  <si>
+    <t>прямые продажи</t>
+  </si>
+  <si>
+    <t>проведение презентаций</t>
+  </si>
+  <si>
+    <t>холодные продажи</t>
+  </si>
+  <si>
+    <t>b2b продажи</t>
+  </si>
+  <si>
+    <t>навыки переговоров</t>
+  </si>
+  <si>
+    <t>поиск и привлечение клиентов</t>
+  </si>
+  <si>
+    <t>планирование продаж</t>
+  </si>
+  <si>
+    <t>корпоративные продажи</t>
+  </si>
+  <si>
+    <t>работа с возражениями</t>
+  </si>
+  <si>
+    <t>телефонные переговоры</t>
+  </si>
+  <si>
+    <t>навыки продаж</t>
+  </si>
+  <si>
+    <t>развитие ключевых клиентов</t>
+  </si>
+  <si>
+    <t>навыки презентации</t>
+  </si>
+  <si>
+    <t>b2g продажи</t>
+  </si>
+  <si>
+    <t>ремонт пк</t>
+  </si>
+  <si>
+    <t>настройка пк</t>
+  </si>
+  <si>
+    <t>настройка сетевых подключений</t>
+  </si>
+  <si>
+    <t>техническое обслуживание</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>с++</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1063,9 +1633,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1103,7 +1673,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1173,7 +1743,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1347,9 +1917,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="A368" sqref="A368"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1379,13 +1951,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="E2">
-        <v>137</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1393,13 +1965,13 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3">
         <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1407,13 +1979,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1421,13 +1993,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1435,13 +2007,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1449,13 +2021,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1463,13 +2035,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1477,13 +2049,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1491,13 +2063,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1505,13 +2077,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1519,13 +2091,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1533,13 +2105,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1547,13 +2119,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1561,13 +2133,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1575,13 +2147,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1589,13 +2161,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1603,13 +2175,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1617,13 +2189,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1631,13 +2203,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1645,13 +2217,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1659,13 +2231,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1673,13 +2245,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1687,13 +2259,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1701,13 +2273,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1715,13 +2287,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1729,13 +2301,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1743,13 +2315,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1757,13 +2329,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1771,13 +2343,13 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1785,13 +2357,13 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1799,13 +2371,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1813,13 +2385,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1827,13 +2399,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1841,13 +2413,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1855,13 +2427,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1869,13 +2441,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1883,13 +2455,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1897,13 +2469,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1911,13 +2483,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1925,13 +2497,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1939,13 +2511,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>402</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1953,13 +2525,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1967,13 +2539,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>285</v>
+        <v>404</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1981,13 +2553,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>405</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1995,13 +2567,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
+        <v>406</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2009,13 +2581,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>288</v>
+        <v>407</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2023,10 +2595,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>289</v>
+        <v>408</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2037,10 +2609,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>290</v>
+        <v>409</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2051,10 +2623,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2065,10 +2637,10 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>292</v>
+        <v>411</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2079,10 +2651,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>293</v>
+        <v>412</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2093,10 +2665,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>294</v>
+        <v>413</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2107,10 +2679,10 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>295</v>
+        <v>414</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2121,10 +2693,10 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>296</v>
+        <v>415</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2135,10 +2707,10 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2149,10 +2721,10 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>298</v>
+        <v>417</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2163,10 +2735,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2177,10 +2749,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2191,10 +2763,10 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>301</v>
+        <v>420</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2205,10 +2777,10 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>302</v>
+        <v>421</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2219,10 +2791,10 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2233,10 +2805,10 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>304</v>
+        <v>423</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2247,10 +2819,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2261,10 +2833,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2275,10 +2847,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>307</v>
+        <v>426</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2289,10 +2861,10 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>427</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2303,10 +2875,10 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>428</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2317,10 +2889,10 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>310</v>
+        <v>429</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2331,10 +2903,10 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>311</v>
+        <v>430</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2345,10 +2917,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2359,10 +2931,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2373,10 +2945,10 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>314</v>
+        <v>433</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2387,10 +2959,10 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>315</v>
+        <v>434</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2401,10 +2973,10 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>316</v>
+        <v>435</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2415,10 +2987,10 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>317</v>
+        <v>436</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2429,10 +3001,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>318</v>
+        <v>437</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2443,10 +3015,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2457,10 +3029,10 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2471,10 +3043,10 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2485,10 +3057,10 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>322</v>
+        <v>441</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2499,10 +3071,10 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>323</v>
+        <v>442</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2513,10 +3085,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>324</v>
+        <v>443</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2527,10 +3099,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>325</v>
+        <v>444</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2541,10 +3113,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>326</v>
+        <v>445</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2555,10 +3127,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>327</v>
+        <v>446</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2569,10 +3141,10 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>328</v>
+        <v>447</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2583,10 +3155,10 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>329</v>
+        <v>448</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2597,10 +3169,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>330</v>
+        <v>449</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2611,10 +3183,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>331</v>
+        <v>450</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2625,10 +3197,10 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>332</v>
+        <v>451</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2639,10 +3211,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>333</v>
+        <v>452</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2653,7 +3225,13 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>453</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2661,7 +3239,13 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>454</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2669,7 +3253,13 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>455</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2677,518 +3267,908 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>456</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>98</v>
       </c>
       <c r="B97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>457</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>458</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>459</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>460</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>461</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>462</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>463</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>464</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>465</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>466</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>467</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>468</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>469</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>470</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>471</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>472</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>473</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>115</v>
       </c>
       <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>474</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>116</v>
       </c>
       <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>475</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>117</v>
       </c>
       <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>476</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>118</v>
       </c>
       <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>477</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>119</v>
       </c>
       <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>478</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>479</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>480</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>122</v>
       </c>
       <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>481</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>123</v>
       </c>
       <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>482</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>124</v>
       </c>
       <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>483</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>125</v>
       </c>
       <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>484</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>126</v>
       </c>
       <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>485</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>127</v>
       </c>
       <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>486</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>128</v>
       </c>
       <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>487</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>129</v>
       </c>
       <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>488</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>489</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>131</v>
       </c>
       <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>490</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>132</v>
       </c>
       <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>491</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>133</v>
       </c>
       <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>492</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>493</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>135</v>
       </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>494</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>136</v>
       </c>
       <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>495</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>137</v>
       </c>
       <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>496</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>497</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>498</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>499</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>500</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>142</v>
       </c>
       <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>501</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>143</v>
       </c>
       <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>502</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>144</v>
       </c>
       <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>503</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>145</v>
       </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>504</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>146</v>
       </c>
       <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>505</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>506</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>148</v>
       </c>
       <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>507</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>508</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>150</v>
       </c>
       <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>509</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>151</v>
       </c>
       <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>510</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>152</v>
       </c>
       <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>511</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>153</v>
       </c>
       <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>512</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>154</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>513</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>155</v>
       </c>
       <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>514</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>156</v>
       </c>
       <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>515</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>157</v>
       </c>
       <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>516</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>158</v>
       </c>
       <c r="B157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>517</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>159</v>
       </c>
       <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>518</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>160</v>
       </c>
       <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>519</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>161</v>
       </c>
       <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>520</v>
+      </c>
+      <c r="E160">
         <v>1</v>
       </c>
     </row>
@@ -3197,7 +4177,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3205,7 +4185,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3213,7 +4193,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3221,7 +4201,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3229,7 +4209,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3838,6 +4818,988 @@
       </c>
       <c r="B241">
         <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
